--- a/Mulyani/DataFixMulyani.xlsx
+++ b/Mulyani/DataFixMulyani.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Mulyani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEE9F7F-897F-4C94-BAF8-D6DB71F7CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC3C20-54CB-4034-92B5-DD212204C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{5CB6816F-E513-4A18-BC49-62C3DC126A8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5CB6816F-E513-4A18-BC49-62C3DC126A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="1" r:id="rId1"/>
-    <sheet name="RT-UM" sheetId="2" r:id="rId2"/>
-    <sheet name="RT-P" sheetId="3" r:id="rId3"/>
-    <sheet name="RT-UM-P" sheetId="4" r:id="rId4"/>
-    <sheet name="P" sheetId="5" r:id="rId5"/>
-    <sheet name="UM" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="RT-UM" sheetId="2" r:id="rId3"/>
+    <sheet name="RT-P" sheetId="3" r:id="rId4"/>
+    <sheet name="RT-UM-P" sheetId="4" r:id="rId5"/>
+    <sheet name="P" sheetId="5" r:id="rId6"/>
+    <sheet name="UM" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="609">
   <si>
     <t>sarihun</t>
   </si>
@@ -794,9 +795,6 @@
     <t>5203090706890009</t>
   </si>
   <si>
-    <t>IJIM</t>
-  </si>
-  <si>
     <t>5203094107300094</t>
   </si>
   <si>
@@ -1854,6 +1852,12 @@
   </si>
   <si>
     <t>5203090107830239</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nik</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1885,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1891,6 +1895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +1932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -1933,11 +1943,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2247,27 +2295,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2CB71-4F25-41DC-8F76-39B1579946B4}">
-  <dimension ref="B2:C219"/>
+  <dimension ref="A2:C219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C50" sqref="A2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2275,7 +2330,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2283,7 +2341,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2352,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +2363,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2307,7 +2374,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2315,7 +2385,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2323,7 +2396,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2407,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2339,7 +2418,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,7 +2429,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2355,7 +2440,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2451,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2371,7 +2462,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2379,7 +2473,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2387,7 +2484,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2495,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2403,7 +2506,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2411,7 +2517,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2419,7 +2528,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2539,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
@@ -2435,7 +2550,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
@@ -2443,7 +2561,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
@@ -2451,7 +2572,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
@@ -2459,7 +2583,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2467,7 +2594,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -2475,7 +2605,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2483,7 +2616,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
@@ -2491,7 +2627,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
@@ -2499,7 +2638,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>60</v>
       </c>
@@ -2507,7 +2649,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>62</v>
       </c>
@@ -2515,7 +2660,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
@@ -2523,7 +2671,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
@@ -2531,7 +2682,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
@@ -2539,7 +2693,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
@@ -2547,7 +2704,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
@@ -2555,7 +2715,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
@@ -2563,7 +2726,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
@@ -2571,7 +2737,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
@@ -2579,7 +2748,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
@@ -2587,7 +2759,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>82</v>
       </c>
@@ -2595,7 +2770,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>84</v>
       </c>
@@ -2603,7 +2781,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>86</v>
       </c>
@@ -2611,7 +2792,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>88</v>
       </c>
@@ -2619,7 +2803,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
@@ -2627,7 +2814,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
@@ -2635,7 +2825,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
@@ -2643,7 +2836,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -2651,7 +2847,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
@@ -2659,7 +2858,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>100</v>
       </c>
@@ -2667,7 +2869,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>102</v>
       </c>
@@ -2675,7 +2880,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" s="6" t="s">
         <v>104</v>
       </c>
@@ -2683,7 +2891,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" s="6" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2902,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>108</v>
       </c>
@@ -2699,7 +2913,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>110</v>
       </c>
@@ -2707,7 +2924,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>112</v>
       </c>
@@ -2715,7 +2935,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>114</v>
       </c>
@@ -2723,7 +2946,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>116</v>
       </c>
@@ -2731,7 +2957,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>118</v>
       </c>
@@ -2739,7 +2968,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>120</v>
       </c>
@@ -2747,7 +2979,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -2755,7 +2990,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>124</v>
       </c>
@@ -2763,7 +3001,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>126</v>
       </c>
@@ -2771,7 +3012,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>128</v>
       </c>
@@ -2779,7 +3023,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>130</v>
       </c>
@@ -2787,7 +3034,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>132</v>
       </c>
@@ -2795,7 +3045,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>134</v>
       </c>
@@ -2803,7 +3056,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>136</v>
       </c>
@@ -2811,7 +3067,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>138</v>
       </c>
@@ -2819,7 +3078,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>140</v>
       </c>
@@ -2827,7 +3089,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>142</v>
       </c>
@@ -2835,7 +3100,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>144</v>
       </c>
@@ -2843,7 +3111,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>146</v>
       </c>
@@ -2851,31 +3122,43 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" s="3" t="s">
         <v>154</v>
       </c>
@@ -2883,7 +3166,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" s="3" t="s">
         <v>156</v>
       </c>
@@ -2891,7 +3177,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" s="3" t="s">
         <v>158</v>
       </c>
@@ -2899,7 +3188,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" s="3" t="s">
         <v>160</v>
       </c>
@@ -2907,7 +3199,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" s="3" t="s">
         <v>162</v>
       </c>
@@ -2915,7 +3210,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" s="6" t="s">
         <v>164</v>
       </c>
@@ -2923,7 +3221,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" s="6" t="s">
         <v>166</v>
       </c>
@@ -2931,39 +3232,54 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" s="3" t="s">
         <v>176</v>
       </c>
@@ -2971,7 +3287,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" s="3" t="s">
         <v>178</v>
       </c>
@@ -2979,7 +3298,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" s="3" t="s">
         <v>180</v>
       </c>
@@ -2987,7 +3309,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" s="3" t="s">
         <v>182</v>
       </c>
@@ -2995,7 +3320,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" s="3" t="s">
         <v>184</v>
       </c>
@@ -3003,7 +3331,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" s="6" t="s">
         <v>186</v>
       </c>
@@ -3011,31 +3342,43 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" s="3" t="s">
         <v>194</v>
       </c>
@@ -3043,7 +3386,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" s="3" t="s">
         <v>196</v>
       </c>
@@ -3051,7 +3397,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" s="3" t="s">
         <v>198</v>
       </c>
@@ -3059,7 +3408,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" s="3" t="s">
         <v>200</v>
       </c>
@@ -3067,7 +3419,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" s="3" t="s">
         <v>202</v>
       </c>
@@ -3075,7 +3430,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" s="9" t="s">
         <v>204</v>
       </c>
@@ -3083,7 +3441,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" s="3" t="s">
         <v>206</v>
       </c>
@@ -3091,7 +3452,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" s="3" t="s">
         <v>208</v>
       </c>
@@ -3099,7 +3463,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" s="3" t="s">
         <v>210</v>
       </c>
@@ -3107,7 +3474,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" s="3" t="s">
         <v>212</v>
       </c>
@@ -3115,7 +3485,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" s="3" t="s">
         <v>214</v>
       </c>
@@ -3123,7 +3496,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" s="3" t="s">
         <v>150</v>
       </c>
@@ -3131,7 +3507,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" s="3" t="s">
         <v>217</v>
       </c>
@@ -3139,7 +3518,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" s="3" t="s">
         <v>219</v>
       </c>
@@ -3147,7 +3529,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" s="3" t="s">
         <v>221</v>
       </c>
@@ -3155,7 +3540,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" s="3" t="s">
         <v>223</v>
       </c>
@@ -3163,7 +3551,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" s="3" t="s">
         <v>225</v>
       </c>
@@ -3171,7 +3562,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" s="3" t="s">
         <v>227</v>
       </c>
@@ -3179,7 +3573,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" s="3" t="s">
         <v>229</v>
       </c>
@@ -3187,7 +3584,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" s="3" t="s">
         <v>231</v>
       </c>
@@ -3195,7 +3595,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119" s="3" t="s">
         <v>233</v>
       </c>
@@ -3203,7 +3606,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" s="3" t="s">
         <v>235</v>
       </c>
@@ -3211,7 +3617,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121" s="6" t="s">
         <v>237</v>
       </c>
@@ -3219,801 +3628,3515 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B122" s="6" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="12">
+        <v>121</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B123" s="3" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="12">
+        <v>122</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B124" s="3" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="12">
+        <v>123</v>
+      </c>
+      <c r="B124" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B125" s="6" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="12">
+        <v>124</v>
+      </c>
+      <c r="B125" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B126" s="6" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="12">
+        <v>125</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B127" s="3" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="12">
+        <v>126</v>
+      </c>
+      <c r="B127" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B128" s="3" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="12">
+        <v>127</v>
+      </c>
+      <c r="B128" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B129" s="3" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="12">
+        <v>128</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B130" s="3" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="12">
+        <v>130</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B131" s="3" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="12">
+        <v>131</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B132" s="5" t="s">
+      <c r="C131" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="4" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="12">
+        <v>132</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B133" s="5" t="s">
+      <c r="C132" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="4" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="12">
+        <v>133</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B134" s="5" t="s">
+      <c r="C133" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="4" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="12">
+        <v>134</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B135" s="5" t="s">
+      <c r="C134" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="4" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="12">
+        <v>135</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B136" s="4" t="s">
+      <c r="C135" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="4" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="12">
+        <v>136</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B137" s="4" t="s">
+      <c r="C136" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="4" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="12">
+        <v>137</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B138" s="5" t="s">
+      <c r="C137" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="4" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="12">
+        <v>138</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B139" s="5" t="s">
+      <c r="C138" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="4" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="12">
+        <v>139</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B140" s="5" t="s">
+      <c r="C139" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="4" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="12">
+        <v>140</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B141" s="5" t="s">
+      <c r="C140" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="4" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="12">
+        <v>141</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B142" s="5" t="s">
+      <c r="C141" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="4" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="12">
+        <v>142</v>
+      </c>
+      <c r="B142" s="16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B143" s="5" t="s">
+      <c r="C142" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="4" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="12">
+        <v>143</v>
+      </c>
+      <c r="B143" s="16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B144" s="5" t="s">
+      <c r="C143" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="4" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="12">
+        <v>144</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B145" s="5" t="s">
+      <c r="C144" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="4" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="12">
+        <v>145</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B146" s="5" t="s">
+      <c r="C145" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="4" t="s">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="12">
+        <v>146</v>
+      </c>
+      <c r="B146" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B147" s="5" t="s">
+      <c r="C146" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="4" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="12">
+        <v>147</v>
+      </c>
+      <c r="B147" s="16" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B148" s="5" t="s">
+      <c r="C147" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="4" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="12">
+        <v>148</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B149" s="5" t="s">
+      <c r="C148" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="4" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="12">
+        <v>149</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B150" s="5" t="s">
+      <c r="C149" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="4" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="12">
+        <v>150</v>
+      </c>
+      <c r="B150" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B151" s="5" t="s">
+      <c r="C150" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="4" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="12">
+        <v>151</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B152" s="5" t="s">
+      <c r="C151" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="4" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="12">
+        <v>152</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B153" s="5" t="s">
+      <c r="C152" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="4" t="s">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="12">
+        <v>153</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B154" s="5" t="s">
+      <c r="C153" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="4" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="12">
+        <v>154</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B155" s="5" t="s">
+      <c r="C154" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="4" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="12">
+        <v>155</v>
+      </c>
+      <c r="B155" s="16" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B156" s="5" t="s">
+      <c r="C155" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C156" s="4" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="12">
+        <v>156</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B157" s="5" t="s">
+      <c r="C156" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C157" s="4" t="s">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="12">
+        <v>157</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B158" s="5" t="s">
+      <c r="C157" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="4" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="12">
+        <v>158</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B159" s="5" t="s">
+      <c r="C158" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="4" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="12">
+        <v>159</v>
+      </c>
+      <c r="B159" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B160" s="5" t="s">
+      <c r="C159" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C160" s="4" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="12">
+        <v>160</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B161" s="5" t="s">
+      <c r="C160" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="4" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="12">
+        <v>161</v>
+      </c>
+      <c r="B161" s="16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B162" s="5" t="s">
+      <c r="C161" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C162" s="4" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="12">
+        <v>162</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B163" s="5" t="s">
+      <c r="C162" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="4" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="12">
+        <v>163</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B164" s="5" t="s">
+      <c r="C163" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="4" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="12">
+        <v>164</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B165" s="5" t="s">
+      <c r="C164" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="4" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="12">
+        <v>165</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B166" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C166" s="4" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="12">
+        <v>166</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B167" s="5" t="s">
+      <c r="C166" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="4" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="12">
+        <v>167</v>
+      </c>
+      <c r="B167" s="16" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B168" s="5" t="s">
+      <c r="C167" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="4" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="12">
+        <v>168</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B169" s="5" t="s">
+      <c r="C168" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="4" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="12">
+        <v>169</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B170" s="5" t="s">
+      <c r="C169" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="4" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="12">
+        <v>170</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B171" s="5" t="s">
+      <c r="C170" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C171" s="4" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="12">
+        <v>171</v>
+      </c>
+      <c r="B171" s="16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B172" s="5" t="s">
+      <c r="C171" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="4" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="12">
+        <v>172</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B173" s="5" t="s">
+      <c r="C172" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C173" s="4" t="s">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="12">
+        <v>173</v>
+      </c>
+      <c r="B173" s="16" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B174" s="5" t="s">
+      <c r="C173" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C174" s="4" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="12">
+        <v>174</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B175" s="5" t="s">
+      <c r="C174" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C175" s="4" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="12">
+        <v>175</v>
+      </c>
+      <c r="B175" s="16" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B176" s="5" t="s">
+      <c r="C175" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C176" s="4" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="12">
+        <v>176</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B177" s="5" t="s">
+      <c r="C176" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C177" s="4" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="12">
+        <v>177</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B178" s="3" t="s">
+      <c r="C177" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C178" s="4" t="s">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="12">
+        <v>178</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B179" s="3" t="s">
+      <c r="C178" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="4" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="12">
+        <v>179</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B180" s="6" t="s">
+      <c r="C179" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C180" s="4" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="12">
+        <v>180</v>
+      </c>
+      <c r="B180" s="15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B181" s="3" t="s">
+      <c r="C180" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C181" s="4" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="12">
+        <v>181</v>
+      </c>
+      <c r="B181" s="15" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B182" s="3" t="s">
+      <c r="C181" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C182" s="4" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="12">
+        <v>182</v>
+      </c>
+      <c r="B182" s="15" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B183" s="3" t="s">
+      <c r="C182" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C183" s="4" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="12">
+        <v>183</v>
+      </c>
+      <c r="B183" s="15" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B184" s="3" t="s">
+      <c r="C183" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C184" s="4" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="12">
+        <v>184</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B185" s="3" t="s">
+      <c r="C184" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C185" s="4" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="12">
+        <v>185</v>
+      </c>
+      <c r="B185" s="15" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B186" s="3" t="s">
+      <c r="C185" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C186" s="4" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="12">
+        <v>186</v>
+      </c>
+      <c r="B186" s="15" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B187" s="3" t="s">
+      <c r="C186" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C187" s="4" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="12">
+        <v>187</v>
+      </c>
+      <c r="B187" s="15" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B188" s="3" t="s">
+      <c r="C187" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C188" s="4" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="12">
+        <v>188</v>
+      </c>
+      <c r="B188" s="15" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B189" s="3" t="s">
+      <c r="C188" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C189" s="4" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="12">
+        <v>189</v>
+      </c>
+      <c r="B189" s="15" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B190" s="3" t="s">
+      <c r="C189" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C190" s="4" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="12">
+        <v>190</v>
+      </c>
+      <c r="B190" s="15" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B191" s="3" t="s">
+      <c r="C190" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C191" s="4" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="12">
+        <v>191</v>
+      </c>
+      <c r="B191" s="15" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B192" s="3" t="s">
+      <c r="C191" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C192" s="4" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="12">
+        <v>192</v>
+      </c>
+      <c r="B192" s="15" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B193" s="3" t="s">
+      <c r="C192" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C193" s="4" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="12">
+        <v>193</v>
+      </c>
+      <c r="B193" s="15" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B194" s="3" t="s">
+      <c r="C193" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C194" s="4" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="12">
+        <v>194</v>
+      </c>
+      <c r="B194" s="15" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B195" s="3" t="s">
+      <c r="C194" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C195" s="4" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="12">
+        <v>195</v>
+      </c>
+      <c r="B195" s="15" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B196" s="3" t="s">
+      <c r="C195" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C196" s="4" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="12">
+        <v>196</v>
+      </c>
+      <c r="B196" s="15" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B197" s="3" t="s">
+      <c r="C196" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C197" s="4" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="12">
+        <v>197</v>
+      </c>
+      <c r="B197" s="15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B198" s="3" t="s">
+      <c r="C197" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C198" s="4" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="12">
+        <v>198</v>
+      </c>
+      <c r="B198" s="15" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B199" s="3" t="s">
+      <c r="C198" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C199" s="4" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="12">
+        <v>199</v>
+      </c>
+      <c r="B199" s="15" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B200" s="3" t="s">
+      <c r="C199" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C200" s="4" t="s">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="12">
+        <v>200</v>
+      </c>
+      <c r="B200" s="15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C200" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>201</v>
+      </c>
       <c r="B201" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>202</v>
+      </c>
       <c r="B202" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>203</v>
+      </c>
       <c r="B203" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>204</v>
+      </c>
       <c r="B204" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>205</v>
+      </c>
       <c r="B205" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>206</v>
+      </c>
       <c r="B206" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>207</v>
+      </c>
       <c r="B207" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B208" s="3" t="s">
         <v>408</v>
       </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="C208" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>209</v>
+      </c>
       <c r="B209" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>210</v>
+      </c>
       <c r="B210" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>211</v>
+      </c>
       <c r="B211" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>212</v>
+      </c>
       <c r="B212" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>213</v>
+      </c>
       <c r="B213" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>214</v>
+      </c>
       <c r="B214" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>215</v>
+      </c>
       <c r="B215" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B216" s="5" t="s">
         <v>424</v>
       </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>425</v>
+      </c>
       <c r="C216" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>217</v>
+      </c>
       <c r="B217" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>218</v>
+      </c>
       <c r="B218" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B219" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>431</v>
-      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C221">
+    <sortCondition ref="A2:A221"/>
+  </sortState>
+  <conditionalFormatting sqref="C2 C220:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C7A775-2E99-4DE2-A1A9-FD1486D01C52}">
+  <dimension ref="A2:E219"/>
+  <sheetViews>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C219"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>133</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>171</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>158</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>196</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>204</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>178</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>115</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>118</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>181</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>103</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>88</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>128</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>87</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>125</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>114</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>194</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>104</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>36</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>202</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>77</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>116</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>127</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>97</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>126</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>185</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>182</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>101</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>183</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>199</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>45</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>177</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>61</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>66</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>110</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>191</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>59</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>216</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>71</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>193</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>130</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>102</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>53</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>109</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>113</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>205</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>197</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>21</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>112</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>27</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>33</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>124</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>56</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>55</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>58</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>119</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>195</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>207</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>180</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>25</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>90</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>81</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>60</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>89</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>198</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>46</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>85</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>98</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>68</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>41</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>192</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>107</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>190</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>201</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>200</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>63</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>186</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>108</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>218</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>51</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>203</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>189</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>49</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>37</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>78</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>52</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>95</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>74</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>179</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>184</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>93</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>217</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>17</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>43</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>94</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>135</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>157</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>138</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>168</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>137</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>134</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>148</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>155</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>163</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>151</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>143</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>150</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>161</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>170</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>160</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>140</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>166</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>208</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>174</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>144</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>209</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>175</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>214</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>141</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>132</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>212</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>167</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>215</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>162</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>19</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>213</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>146</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>136</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>173</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>142</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>211</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>100</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>145</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>210</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>165</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>139</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>131</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>159</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>154</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>176</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>156</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>30</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>169</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>153</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>149</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>164</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>152</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>83</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>31</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969FA95-9198-4131-88DB-B78B4602EA41}">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4024,449 +7147,194 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EDCEE-DD34-41D0-8F92-FF3BDB6A8755}">
-  <dimension ref="B2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4475,11 +7343,356 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EDCEE-DD34-41D0-8F92-FF3BDB6A8755}">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDE169-8487-408F-B17E-A6926969AF81}">
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4490,82 +7703,82 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4573,12 +7786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7238A76-A102-4050-A607-671B547420FF}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4589,50 +7802,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -4640,79 +7853,79 @@
         <v>227</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -4720,12 +7933,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F389E3-ED69-489E-9D19-3732064699BF}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4735,90 +7948,90 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/Mulyani/DataFixMulyani.xlsx
+++ b/Mulyani/DataFixMulyani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Mulyani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC3C20-54CB-4034-92B5-DD212204C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC0A7F6-3551-416A-823D-16FDB89D493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5CB6816F-E513-4A18-BC49-62C3DC126A8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CB6816F-E513-4A18-BC49-62C3DC126A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="RT" sheetId="1" r:id="rId1"/>
@@ -2297,18 +2297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C2CB71-4F25-41DC-8F76-39B1579946B4}">
   <dimension ref="A2:C219"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C50" sqref="A2:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>122</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>123</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>124</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>130</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>131</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>132</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>133</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>134</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>135</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>136</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>137</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>138</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>139</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>140</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>141</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>142</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>143</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>144</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>145</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>146</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>147</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>148</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>149</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>150</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>151</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>152</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>153</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>154</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>155</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>156</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>157</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>158</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>159</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>160</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>161</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>162</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>163</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>164</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>165</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>166</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>167</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>168</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>169</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>170</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>171</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>172</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>173</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>174</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>175</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>176</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>177</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>178</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>179</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>180</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>181</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>182</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>183</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>184</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>185</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>186</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>187</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>188</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>189</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>190</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>191</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>192</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>193</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>194</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>195</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>196</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>197</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>198</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>199</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>200</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>205</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>206</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>207</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>208</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>209</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>211</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>212</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>213</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>214</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>215</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>216</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>217</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>218</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
     </row>
@@ -4718,13 +4718,13 @@
       <selection activeCell="A3" sqref="A3:C219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>607</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>133</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>171</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>158</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>120</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>206</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>105</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>196</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>92</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>204</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>111</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>178</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>115</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>54</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>67</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>118</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>38</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>42</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>181</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>91</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>72</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>73</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>79</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>57</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>128</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>82</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>47</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>99</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>87</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>125</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>69</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>114</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>194</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>104</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>28</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>188</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>36</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>202</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>77</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>116</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>122</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>123</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>127</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>48</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>97</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>126</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>185</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>182</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>101</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>64</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>183</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>199</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>76</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>177</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>61</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>66</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>110</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>191</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>59</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>216</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>71</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>193</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>130</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>102</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>96</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>53</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>109</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>113</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>205</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>197</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>112</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>11</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>27</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>33</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>124</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>56</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>55</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>58</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>119</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>195</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>207</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>16</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>180</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>25</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>39</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>90</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>60</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>89</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>198</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>46</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>85</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>98</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>68</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>41</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>192</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>107</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>190</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>201</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>200</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>63</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>186</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>108</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>218</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>51</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>203</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>189</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>49</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>37</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>78</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>52</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>95</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>74</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>12</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>179</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>184</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>93</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>217</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>17</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>43</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>94</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>135</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>157</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>138</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>168</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>137</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>134</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>148</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>155</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>163</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>151</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>143</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>150</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>161</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>170</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>160</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>140</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>166</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>208</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>174</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>144</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>209</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>175</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>214</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>141</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>132</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>212</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>167</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>215</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>162</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>19</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>213</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>146</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>136</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>173</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>142</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>211</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>100</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>145</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>210</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>165</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>139</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>131</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>159</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>154</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>176</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>156</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>30</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>169</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>153</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>147</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>149</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>164</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>152</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>83</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>31</v>
       </c>
@@ -7133,19 +7133,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969FA95-9198-4131-88DB-B78B4602EA41}">
-  <dimension ref="B2:C25"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>431</v>
       </c>
@@ -7153,7 +7156,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>433</v>
       </c>
@@ -7161,7 +7167,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>435</v>
       </c>
@@ -7169,7 +7178,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>437</v>
       </c>
@@ -7177,7 +7189,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>439</v>
       </c>
@@ -7185,7 +7200,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>441</v>
       </c>
@@ -7193,7 +7211,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>443</v>
       </c>
@@ -7201,7 +7222,10 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>445</v>
       </c>
@@ -7209,7 +7233,10 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>447</v>
       </c>
@@ -7217,7 +7244,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>407</v>
       </c>
@@ -7225,7 +7255,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>450</v>
       </c>
@@ -7233,7 +7266,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>452</v>
       </c>
@@ -7241,7 +7277,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>454</v>
       </c>
@@ -7249,7 +7288,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>456</v>
       </c>
@@ -7257,7 +7299,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>458</v>
       </c>
@@ -7265,7 +7310,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>460</v>
       </c>
@@ -7273,7 +7321,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>462</v>
       </c>
@@ -7281,7 +7332,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>464</v>
       </c>
@@ -7289,7 +7343,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>466</v>
       </c>
@@ -7297,7 +7354,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>468</v>
       </c>
@@ -7305,7 +7365,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>470</v>
       </c>
@@ -7313,7 +7376,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>445</v>
       </c>
@@ -7321,7 +7387,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>473</v>
       </c>
@@ -7329,7 +7398,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>475</v>
       </c>
@@ -7350,9 +7422,9 @@
       <selection activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7363,7 +7435,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7374,7 +7446,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7385,7 +7457,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7396,7 +7468,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7407,7 +7479,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7418,7 +7490,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7429,7 +7501,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7440,7 +7512,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7451,7 +7523,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7462,7 +7534,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7473,7 +7545,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7484,7 +7556,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7495,7 +7567,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7506,7 +7578,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7517,7 +7589,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7528,7 +7600,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7539,7 +7611,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7550,7 +7622,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7561,7 +7633,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7572,7 +7644,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7583,7 +7655,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7594,7 +7666,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7605,7 +7677,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7616,7 +7688,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7627,7 +7699,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7638,7 +7710,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7649,7 +7721,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7660,7 +7732,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7671,7 +7743,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7695,13 +7767,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>535</v>
       </c>
@@ -7709,7 +7781,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>537</v>
       </c>
@@ -7717,7 +7789,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>539</v>
       </c>
@@ -7725,7 +7797,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>541</v>
       </c>
@@ -7733,7 +7805,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>543</v>
       </c>
@@ -7741,7 +7813,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>389</v>
       </c>
@@ -7749,7 +7821,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>546</v>
       </c>
@@ -7757,7 +7829,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>548</v>
       </c>
@@ -7765,7 +7837,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>550</v>
       </c>
@@ -7773,7 +7845,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>552</v>
       </c>
@@ -7794,13 +7866,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>576</v>
       </c>
@@ -7808,7 +7880,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>578</v>
       </c>
@@ -7816,7 +7888,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>580</v>
       </c>
@@ -7824,7 +7896,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>582</v>
       </c>
@@ -7832,7 +7904,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>584</v>
       </c>
@@ -7840,7 +7912,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>586</v>
       </c>
@@ -7848,7 +7920,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>227</v>
       </c>
@@ -7856,7 +7928,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>589</v>
       </c>
@@ -7864,7 +7936,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>591</v>
       </c>
@@ -7872,7 +7944,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>593</v>
       </c>
@@ -7880,7 +7952,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>595</v>
       </c>
@@ -7888,7 +7960,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>597</v>
       </c>
@@ -7896,7 +7968,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>599</v>
       </c>
@@ -7904,7 +7976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>601</v>
       </c>
@@ -7912,7 +7984,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>603</v>
       </c>
@@ -7920,7 +7992,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>605</v>
       </c>
@@ -7937,16 +8009,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F389E3-ED69-489E-9D19-3732064699BF}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>554</v>
       </c>
@@ -7954,7 +8026,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>556</v>
       </c>
@@ -7962,7 +8034,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>558</v>
       </c>
@@ -7970,7 +8042,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>560</v>
       </c>
@@ -7978,7 +8050,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>562</v>
       </c>
@@ -7986,7 +8058,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>564</v>
       </c>
@@ -7994,7 +8066,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>566</v>
       </c>
@@ -8002,7 +8074,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>568</v>
       </c>
@@ -8010,7 +8082,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>570</v>
       </c>
@@ -8018,7 +8090,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>572</v>
       </c>
@@ -8026,7 +8098,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>574</v>
       </c>
